--- a/test/grade_test/test_grade_output.xlsx
+++ b/test/grade_test/test_grade_output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\민태희\Desktop\github\isbr-ocr-extraction\test\grade_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr-ocr-extraction\test\grade_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E764D129-2243-4773-AD39-F3B2593E7051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8574CFC2-5602-41C4-86EF-850AF59A5291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>파일명</t>
   </si>
@@ -154,18 +154,27 @@
     <t>XD87-1E0F-30EF-E757</t>
   </si>
   <si>
-    <t>XD87-1EOF-30FF-E757</t>
+    <t>XD87-1E0F-30FF-E757</t>
+  </si>
+  <si>
+    <t>883D-5802D-1CB4-FB621</t>
   </si>
   <si>
     <t>3643425422353633</t>
   </si>
   <si>
+    <t>DE6E-6827F-B982-DC162</t>
+  </si>
+  <si>
     <t>XD92-EC6D-0818-2A9E</t>
   </si>
   <si>
     <t>XD59-37D5-4540-8168</t>
   </si>
   <si>
+    <t>EE3C-A5F2A-02A0-7150D</t>
+  </si>
+  <si>
     <t>XD56-CD17-99EE-I9F0</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
     <t>XD14-A949-9124-8684</t>
   </si>
   <si>
+    <t>8AA9-EAB49-362E-FB842</t>
+  </si>
+  <si>
     <t>XD36-9158-EA42-DAAC</t>
   </si>
   <si>
@@ -193,18 +205,27 @@
     <t>3437653422323819</t>
   </si>
   <si>
-    <t>XDB4-BA95-A130-OBC5</t>
+    <t>1589-A5746-7BB1-DBC16</t>
+  </si>
+  <si>
+    <t>XDB4-BA95-A130-0BC5</t>
   </si>
   <si>
     <t>WF53-E149-90B1-A485</t>
   </si>
   <si>
+    <t>01B7-21282-04CA-1BEE1</t>
+  </si>
+  <si>
     <t>XDD1-E316-9896-2390</t>
   </si>
   <si>
     <t>XDEC-23F6-0520-9928</t>
   </si>
   <si>
+    <t>3CFD-9231D-4F11-0EF34</t>
+  </si>
+  <si>
     <t>3245261621633339</t>
   </si>
   <si>
@@ -295,91 +316,11 @@
     <t>2018-3-2</t>
   </si>
   <si>
-    <t>문서1,0</t>
+    <t>883D-5802D-1CB4-FB621</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>발급1,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1EOF에서, O가아니라 0임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-5-4-5패턴임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원본확인번호:DE6E-6827F-B982-DC162</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원본확인번호:883D-5802D-1CB4-FB621</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원본확인번호 : EE3C-A5F2A-02A0-7150D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XDOB-9A49-2E88--736D  이런식으로 '-'가 하나 더나옴. 그리고 XDO8이 아니라 XD08임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I9F0이 아니라 F9F0임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>없는거맞음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8684가 아니라 8B4A임. 어느정도 비슷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원본확인번호 : 8AA9-EAB49-362E-FB842</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원본확인번호 : 1589-A5746-7BB1-DBC16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OBC5가 아니라 0BC5임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A485가 아니라 A4B5임. 근데 이건 사람도 헷갈릴 수준임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효기간을 잡아버림. 근데 딱히 상관없지않나?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원본확인번호 : 3CFD-9231D-4F11-0EF34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>없는거 맞음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E를 싹다 F라고 인식함. 이미지 살짝 기울어져서 그런걸 수도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ocr나온 거 보면 internet no는 못찾고, 나머지 번호는 찾음. 날짜는 못찾음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3643405416123642특허10</t>
+    <t>DE6E-6827F-B982-DC162</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -442,27 +383,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -769,19 +696,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,17 +719,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -809,16 +728,10 @@
         <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -826,692 +739,410 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
       <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>20</v>
       </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
       <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>25</v>
       </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
       <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>28</v>
       </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
       <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>32</v>
       </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
       <c r="C31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>33</v>
       </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
       <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/test/grade_test/test_grade_output.xlsx
+++ b/test/grade_test/test_grade_output.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr-ocr-extraction\test\grade_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8574CFC2-5602-41C4-86EF-850AF59A5291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44714D92-B6EF-4830-9258-E3FA85D1FDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="114">
   <si>
     <t>파일명</t>
   </si>
@@ -31,6 +44,9 @@
     <t>성적증명_추정발급일</t>
   </si>
   <si>
+    <t>성적증명_대학교</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -175,6 +191,9 @@
     <t>EE3C-A5F2A-02A0-7150D</t>
   </si>
   <si>
+    <t>XD0B-9A49-2E88-736D</t>
+  </si>
+  <si>
     <t>XD56-CD17-99EE-I9F0</t>
   </si>
   <si>
@@ -250,19 +269,13 @@
     <t>2023-11-28</t>
   </si>
   <si>
-    <t>2023-12-2</t>
-  </si>
-  <si>
     <t>2023-12-02</t>
   </si>
   <si>
     <t>2023-11-29</t>
   </si>
   <si>
-    <t>2023.11.28</t>
-  </si>
-  <si>
-    <t>2023-5-31</t>
+    <t>2023-05-31</t>
   </si>
   <si>
     <t>2021-01-16</t>
@@ -271,57 +284,97 @@
     <t>2023-12-03</t>
   </si>
   <si>
-    <t>2023-12-1</t>
-  </si>
-  <si>
-    <t>2018.09.14</t>
-  </si>
-  <si>
-    <t>2016-9-20</t>
-  </si>
-  <si>
-    <t>2022/08/09</t>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>2018-09-14</t>
+  </si>
+  <si>
+    <t>2016-09-20</t>
+  </si>
+  <si>
+    <t>2022-08-09</t>
   </si>
   <si>
     <t>2023-11-27</t>
   </si>
   <si>
-    <t>2023.11.27</t>
-  </si>
-  <si>
     <t>2024-03-02</t>
   </si>
   <si>
-    <t>2023.11.29</t>
-  </si>
-  <si>
-    <t>2020.10.20</t>
-  </si>
-  <si>
-    <t>2023-11-7</t>
-  </si>
-  <si>
-    <t>2024/03/01</t>
-  </si>
-  <si>
-    <t>2021-12-3</t>
-  </si>
-  <si>
-    <t>2023/12/03</t>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>3393-03-02</t>
+  </si>
+  <si>
+    <t>2024-03-01</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
   </si>
   <si>
     <t>2019-10-22</t>
   </si>
   <si>
-    <t>2018-3-2</t>
-  </si>
-  <si>
-    <t>883D-5802D-1CB4-FB621</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DE6E-6827F-B982-DC162</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>2018-03-02</t>
+  </si>
+  <si>
+    <t>연세대</t>
+  </si>
+  <si>
+    <t>조선대</t>
+  </si>
+  <si>
+    <t>경희대</t>
+  </si>
+  <si>
+    <t>한국방송통신대</t>
+  </si>
+  <si>
+    <t>서울시립대</t>
+  </si>
+  <si>
+    <t>한국외국어대</t>
+  </si>
+  <si>
+    <t>서강대</t>
+  </si>
+  <si>
+    <t>제주대</t>
+  </si>
+  <si>
+    <t>건국대</t>
+  </si>
+  <si>
+    <t>전남대</t>
+  </si>
+  <si>
+    <t>경성대</t>
+  </si>
+  <si>
+    <t>전북대</t>
+  </si>
+  <si>
+    <t>숭실대</t>
+  </si>
+  <si>
+    <t>서영대</t>
+  </si>
+  <si>
+    <t>동국대</t>
+  </si>
+  <si>
+    <t>성균관대</t>
+  </si>
+  <si>
+    <t>한양대</t>
+  </si>
+  <si>
+    <t>경북대</t>
+  </si>
+  <si>
+    <t>동아대</t>
   </si>
 </sst>
 </file>
@@ -699,14 +752,15 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -719,430 +773,550 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>80</v>
       </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>81</v>
       </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>82</v>
       </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>72</v>
-      </c>
       <c r="C40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
         <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
